--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp7-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp7-Acvr2a.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N2">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q2">
-        <v>0.7910113594333333</v>
+        <v>1.044828013438889</v>
       </c>
       <c r="R2">
-        <v>7.119102234900001</v>
+        <v>9.40345212095</v>
       </c>
       <c r="S2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="T2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,13 +620,13 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N3">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q3">
         <v>2.128351532244444</v>
@@ -635,10 +635,10 @@
         <v>19.1551637902</v>
       </c>
       <c r="S3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="T3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N4">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q4">
-        <v>1.434229118205555</v>
+        <v>1.473789855461111</v>
       </c>
       <c r="R4">
-        <v>12.90806206385</v>
+        <v>13.26410869915</v>
       </c>
       <c r="S4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="T4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N5">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O5">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P5">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q5">
-        <v>0.3917621227722222</v>
+        <v>0.3571139337666666</v>
       </c>
       <c r="R5">
-        <v>3.52585910495</v>
+        <v>3.2140254039</v>
       </c>
       <c r="S5">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="T5">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
     </row>
   </sheetData>
